--- a/src/test/resources/login.xlsx
+++ b/src/test/resources/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darshb\Desktop\MAIN_ASSIGNMENT_REST\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E051851E-2160-4DC7-90B7-8E84EF9FE5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1E34A-0B7D-4786-8419-E657AA9382EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CBBDDD22-C70B-41D5-9FE0-3639CB4311E7}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>darshikab</t>
   </si>
   <si>
-    <t>darsh1@gmail.com</t>
-  </si>
-  <si>
-    <t>sanj1@gmail.com</t>
-  </si>
-  <si>
-    <t>harshi1@gmail.com</t>
+    <t>darsh3@gmail.com</t>
+  </si>
+  <si>
+    <t>sanj3@gmail.com</t>
+  </si>
+  <si>
+    <t>harshi3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
